--- a/Experiments/Part4-DoNothing/Peer-similarity/Setting 1 Result/Graph.xlsx
+++ b/Experiments/Part4-DoNothing/Peer-similarity/Setting 1 Result/Graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1360" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="5">
   <si>
     <t xml:space="preserve">Taste 1 </t>
   </si>
@@ -684,20 +684,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092245544"/>
-        <c:axId val="2095465352"/>
+        <c:axId val="2112392536"/>
+        <c:axId val="2112427608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092245544"/>
+        <c:axId val="2112392536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095465352"/>
+        <c:crossAx val="2112427608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -705,24 +724,44 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095465352"/>
+        <c:axId val="2112427608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092245544"/>
+        <c:crossAx val="2112392536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3447,20 +3486,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2104916712"/>
-        <c:axId val="2104919848"/>
+        <c:axId val="-2118804504"/>
+        <c:axId val="-2118801560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2104916712"/>
+        <c:axId val="-2118804504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104919848"/>
+        <c:crossAx val="-2118801560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3468,18 +3526,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104919848"/>
+        <c:axId val="-2118801560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumlated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104916712"/>
+        <c:crossAx val="-2118804504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3526,513 +3603,262 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
+              <c:f>Sheet3!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$82</c:f>
-              <c:strCache>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.291666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.916666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.791666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.83333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.66666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.54166667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.45833333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.83333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.33333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.04166667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42.66666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.66666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46.41666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49.95833333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.08333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>65.16666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.16666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.16666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72.625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>78.33333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80.66666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>81.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>86.33333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88.41666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.83333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>92.58333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>94.20833333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>98.16666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>102.4166667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105.7083333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>107.4583333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>110.1666667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>114.2916667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>118.125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>121.2083333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>124.8333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>126.2083333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>129.625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>132.2083333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>134.9583333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>137.4166667</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>141.0833333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>145.375</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>148.125</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>151.7083333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>154.375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>155.5416667</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.4583333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>164.375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>165.375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>170.125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>173.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>175.375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>180.25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>180.625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>182.6666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>185.625</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>193.125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>198.4583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$82</c:f>
+              <c:f>Sheet3!$A$3:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.833333333</c:v>
+                  <c:v>4.375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.75</c:v>
+                  <c:v>6.29166666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.458333333</c:v>
+                  <c:v>7.91666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.375</c:v>
+                  <c:v>9.79166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.04166667</c:v>
+                  <c:v>11.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.58333333</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.875</c:v>
+                  <c:v>14.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.33333333</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.91666667</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.45833333</c:v>
+                  <c:v>21.5416666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.20833333</c:v>
+                  <c:v>24.125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.75</c:v>
+                  <c:v>26.4583333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.375</c:v>
+                  <c:v>28.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.0</c:v>
+                  <c:v>32.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.33333333</c:v>
+                  <c:v>34.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.79166667</c:v>
+                  <c:v>38.0416666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.75</c:v>
+                  <c:v>40.625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45.875</c:v>
+                  <c:v>42.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.16666667</c:v>
+                  <c:v>44.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.66666667</c:v>
+                  <c:v>46.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.45833333</c:v>
+                  <c:v>49.9583333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>60.08333333</c:v>
+                  <c:v>52.375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>61.58333333</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>64.0</c:v>
+                  <c:v>58.25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>67.20833333</c:v>
+                  <c:v>60.0833333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.54166667</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.16666667</c:v>
+                  <c:v>65.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80.70833333</c:v>
+                  <c:v>67.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82.0</c:v>
+                  <c:v>70.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83.45833333</c:v>
+                  <c:v>72.625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85.375</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>88.25</c:v>
+                  <c:v>78.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>90.16666667</c:v>
+                  <c:v>80.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92.875</c:v>
+                  <c:v>81.75</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>96.08333333</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>98.79166667</c:v>
+                  <c:v>86.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100.8333333</c:v>
+                  <c:v>88.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>103.2083333</c:v>
+                  <c:v>90.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>106.0</c:v>
+                  <c:v>92.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>107.5416667</c:v>
+                  <c:v>94.2083333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>109.2083333</c:v>
+                  <c:v>96.125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>111.5416667</c:v>
+                  <c:v>98.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>112.3333333</c:v>
+                  <c:v>102.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>114.7083333</c:v>
+                  <c:v>105.708333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>116.8333333</c:v>
+                  <c:v>107.458333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>119.0</c:v>
+                  <c:v>110.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>119.9583333</c:v>
+                  <c:v>114.291666666666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>121.5</c:v>
+                  <c:v>118.125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>123.7916667</c:v>
+                  <c:v>121.208333333333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125.0833333</c:v>
+                  <c:v>123.625</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>129.75</c:v>
+                  <c:v>124.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>131.875</c:v>
+                  <c:v>126.208333333333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>135.125</c:v>
+                  <c:v>129.625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>138.0</c:v>
+                  <c:v>132.208333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>139.5416667</c:v>
+                  <c:v>134.958333333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>140.6666667</c:v>
+                  <c:v>137.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>144.375</c:v>
+                  <c:v>141.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>148.3333333</c:v>
+                  <c:v>145.375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>149.8333333</c:v>
+                  <c:v>148.125</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>152.625</c:v>
+                  <c:v>151.708333333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>154.625</c:v>
+                  <c:v>154.375</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>158.0</c:v>
+                  <c:v>155.541666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>160.7083333</c:v>
+                  <c:v>161.458333333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>163.25</c:v>
+                  <c:v>164.375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>165.9583333</c:v>
+                  <c:v>165.375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>168.4583333</c:v>
+                  <c:v>170.125</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>170.1666667</c:v>
+                  <c:v>173.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>174.2916667</c:v>
+                  <c:v>175.375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>175.0416667</c:v>
+                  <c:v>179.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
+                  <c:v>180.25</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>180.4166667</c:v>
+                  <c:v>180.625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>182.4166667</c:v>
+                  <c:v>182.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>184.0</c:v>
+                  <c:v>185.625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>188.375</c:v>
+                  <c:v>187.875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>191.1666667</c:v>
+                  <c:v>191.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>192.2916667</c:v>
+                  <c:v>193.125</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>194.2916667</c:v>
+                  <c:v>196.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>195.625</c:v>
+                  <c:v>198.458333333333</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>198.4166667</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4045,513 +3871,262 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
+              <c:f>Sheet3!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$82</c:f>
-              <c:strCache>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.291666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.916666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.791666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.83333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.66666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.54166667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.45833333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.83333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.33333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.04166667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42.66666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.66666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46.41666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49.95833333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.08333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>65.16666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.16666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.16666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72.625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>78.33333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80.66666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>81.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>86.33333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88.41666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.83333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>92.58333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>94.20833333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>98.16666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>102.4166667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105.7083333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>107.4583333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>110.1666667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>114.2916667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>118.125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>121.2083333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>124.8333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>126.2083333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>129.625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>132.2083333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>134.9583333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>137.4166667</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>141.0833333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>145.375</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>148.125</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>151.7083333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>154.375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>155.5416667</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.4583333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>164.375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>165.375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>170.125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>173.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>175.375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>180.25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>180.625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>182.6666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>185.625</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>193.125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>198.4583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$82</c:f>
+              <c:f>Sheet3!$B$3:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.833333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.166666667</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.875</c:v>
+                  <c:v>6.458333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.375</c:v>
+                  <c:v>11.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.458333333</c:v>
+                  <c:v>14.04166667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.375</c:v>
+                  <c:v>15.58333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>18.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.75</c:v>
+                  <c:v>21.33333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.70833333</c:v>
+                  <c:v>23.91666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.20833333</c:v>
+                  <c:v>26.45833333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.25</c:v>
+                  <c:v>29.20833333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.25</c:v>
+                  <c:v>31.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.95833333</c:v>
+                  <c:v>34.375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.95833333</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.125</c:v>
+                  <c:v>39.33333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.75</c:v>
+                  <c:v>42.79166667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.125</c:v>
+                  <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.29166667</c:v>
+                  <c:v>45.875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.08333333</c:v>
+                  <c:v>50.16666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.41666667</c:v>
+                  <c:v>54.66666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45.45833333</c:v>
+                  <c:v>56.45833333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.29166667</c:v>
+                  <c:v>60.08333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>47.75</c:v>
+                  <c:v>61.58333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.58333333</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.75</c:v>
+                  <c:v>67.20833333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.83333333</c:v>
+                  <c:v>70.54166667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58.25</c:v>
+                  <c:v>76.16666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60.83333333</c:v>
+                  <c:v>80.70833333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>64.95833333</c:v>
+                  <c:v>83.45833333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>66.91666667</c:v>
+                  <c:v>85.375</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69.91666667</c:v>
+                  <c:v>88.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>73.54166667</c:v>
+                  <c:v>90.16666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>74.79166667</c:v>
+                  <c:v>92.875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78.79166667</c:v>
+                  <c:v>96.08333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>81.41666667</c:v>
+                  <c:v>98.79166667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>86.29166667</c:v>
+                  <c:v>100.8333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>88.25</c:v>
+                  <c:v>103.2083333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>91.91666667</c:v>
+                  <c:v>106.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>96.16666667</c:v>
+                  <c:v>107.5416667</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>97.375</c:v>
+                  <c:v>109.2083333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100.0416667</c:v>
+                  <c:v>111.5416667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>102.0</c:v>
+                  <c:v>112.3333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>105.6666667</c:v>
+                  <c:v>114.7083333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>108.5</c:v>
+                  <c:v>116.8333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>111.625</c:v>
+                  <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>114.9166667</c:v>
+                  <c:v>119.9583333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>117.9166667</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>120.875</c:v>
+                  <c:v>123.7916667</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>122.9583333</c:v>
+                  <c:v>125.0833333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125.7083333</c:v>
+                  <c:v>129.75</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>127.5833333</c:v>
+                  <c:v>131.875</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>129.2083333</c:v>
+                  <c:v>135.125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>131.3333333</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>133.2916667</c:v>
+                  <c:v>139.5416667</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>135.7083333</c:v>
+                  <c:v>140.6666667</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>137.8333333</c:v>
+                  <c:v>144.375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>140.5</c:v>
+                  <c:v>148.3333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>142.0833333</c:v>
+                  <c:v>149.8333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>144.0833333</c:v>
+                  <c:v>152.625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>147.5</c:v>
+                  <c:v>154.625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>149.7083333</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>150.9583333</c:v>
+                  <c:v>160.7083333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>155.1666667</c:v>
+                  <c:v>163.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>159.625</c:v>
+                  <c:v>165.9583333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>161.6666667</c:v>
+                  <c:v>168.4583333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>163.8333333</c:v>
+                  <c:v>170.1666667</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>165.6666667</c:v>
+                  <c:v>174.2916667</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>168.125</c:v>
+                  <c:v>175.0416667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>169.8333333</c:v>
+                  <c:v>179.1666667</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>171.5</c:v>
+                  <c:v>180.4166667</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>174.5416667</c:v>
+                  <c:v>182.4166667</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>178.9583333</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>181.125</c:v>
+                  <c:v>188.375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>184.75</c:v>
+                  <c:v>191.1666667</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>188.25</c:v>
+                  <c:v>192.2916667</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>191.1666667</c:v>
+                  <c:v>194.2916667</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>193.3333333</c:v>
+                  <c:v>195.625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>195.0</c:v>
+                  <c:v>198.4166667</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>196.5416667</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4564,513 +4139,262 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
+              <c:f>Sheet3!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$82</c:f>
-              <c:strCache>
-                <c:ptCount val="81"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$3:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>2.166666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.375</c:v>
+                  <c:v>5.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.291666667</c:v>
+                  <c:v>6.458333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.916666667</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.791666667</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.83333333</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>16.70833333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.66666667</c:v>
+                  <c:v>20.20833333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.5</c:v>
+                  <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.54166667</c:v>
+                  <c:v>26.95833333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.125</c:v>
+                  <c:v>28.95833333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.45833333</c:v>
+                  <c:v>32.125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.83333333</c:v>
+                  <c:v>33.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.25</c:v>
+                  <c:v>36.125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.33333333</c:v>
+                  <c:v>37.29166667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.04166667</c:v>
+                  <c:v>40.08333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.625</c:v>
+                  <c:v>42.41666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.66666667</c:v>
+                  <c:v>45.45833333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.66666667</c:v>
+                  <c:v>46.29166667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.41666667</c:v>
+                  <c:v>47.75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.95833333</c:v>
+                  <c:v>48.58333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52.375</c:v>
+                  <c:v>52.75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55</c:v>
+                  <c:v>55.83333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>58.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60.08333333</c:v>
+                  <c:v>60.83333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.16666667</c:v>
+                  <c:v>64.95833333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>67.16666667</c:v>
+                  <c:v>66.91666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.16666667</c:v>
+                  <c:v>69.91666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72.625</c:v>
+                  <c:v>73.54166667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>76.5</c:v>
+                  <c:v>74.79166667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>78.33333333</c:v>
+                  <c:v>78.79166667</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>80.66666667</c:v>
+                  <c:v>81.41666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>81.75</c:v>
+                  <c:v>86.29166667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>84.375</c:v>
+                  <c:v>88.25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>86.33333333</c:v>
+                  <c:v>91.91666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>88.41666667</c:v>
+                  <c:v>96.16666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>90.83333333</c:v>
+                  <c:v>97.375</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92.58333333</c:v>
+                  <c:v>100.0416667</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>94.20833333</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>96.125</c:v>
+                  <c:v>105.6666667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>98.16666667</c:v>
+                  <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>102.4166667</c:v>
+                  <c:v>111.625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>105.7083333</c:v>
+                  <c:v>114.9166667</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>107.4583333</c:v>
+                  <c:v>117.9166667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>110.1666667</c:v>
+                  <c:v>120.875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>114.2916667</c:v>
+                  <c:v>122.9583333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>118.125</c:v>
+                  <c:v>125.7083333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>121.2083333</c:v>
+                  <c:v>127.5833333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>123.625</c:v>
+                  <c:v>129.2083333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>124.8333333</c:v>
+                  <c:v>131.3333333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>126.2083333</c:v>
+                  <c:v>133.2916667</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>129.625</c:v>
+                  <c:v>135.7083333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>132.2083333</c:v>
+                  <c:v>137.8333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>134.9583333</c:v>
+                  <c:v>140.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>137.4166667</c:v>
+                  <c:v>142.0833333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>141.0833333</c:v>
+                  <c:v>144.0833333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>145.375</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>148.125</c:v>
+                  <c:v>149.7083333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>151.7083333</c:v>
+                  <c:v>150.9583333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>154.375</c:v>
+                  <c:v>155.1666667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>155.5416667</c:v>
+                  <c:v>159.625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>161.4583333</c:v>
+                  <c:v>161.6666667</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164.375</c:v>
+                  <c:v>163.8333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>165.375</c:v>
+                  <c:v>165.6666667</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>170.125</c:v>
+                  <c:v>168.125</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>173.25</c:v>
+                  <c:v>169.8333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>175.375</c:v>
+                  <c:v>171.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
+                  <c:v>174.5416667</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>180.25</c:v>
+                  <c:v>178.9583333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>180.625</c:v>
+                  <c:v>181.125</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>182.6666667</c:v>
+                  <c:v>184.75</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>185.625</c:v>
+                  <c:v>188.25</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>187.875</c:v>
+                  <c:v>191.1666667</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>191</c:v>
+                  <c:v>193.3333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>193.125</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
+                  <c:v>196.5416667</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>198.4583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$D$2:$D$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.166666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.041666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.33333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.91666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.66666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.54166667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.08333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.95833333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32.45833333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.91666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>38.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40.58333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44.54166667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46.375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>48.66666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>51.45833333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>54.58333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.66666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>58.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>60.83333333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63.54166667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65.375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>68.625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>72.04166667</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>75.33333333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>76.75</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>78.95833333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>80.04166667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>82.79166667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>85.66666667</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>87.33333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>89.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>91.33333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92.625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>96.25</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>98.83333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>100.75</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>103.0416667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>106.2083333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>108.375</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>109.375</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>110.7916667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>112.7916667</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>116.625</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>120.1666667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>122.4583333</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>124.5416667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>127.3333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>130.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>131.75</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>134.3333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>138.2083333</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>139.8333333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>141.1666667</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>143.2083333</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>145.4583333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>147.4166667</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>149.9583333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>152.25</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>154.3333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>157.875</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>163.0416667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>165.3333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>168.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>170.5416667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>173.1666667</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>175.8333333</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>177.9166667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>180.625</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>182.8333333</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>184.2083333</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>187.5833333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>189.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>193.375</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>196.8333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>199.625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5083,513 +4407,262 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$E$1</c:f>
+              <c:f>Sheet3!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$82</c:f>
-              <c:strCache>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.291666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.916666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.791666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.83333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.66666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.54166667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.45833333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.83333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.33333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.04166667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42.66666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.66666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46.41666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49.95833333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.08333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>65.16666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.16666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.16666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72.625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>78.33333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80.66666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>81.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>86.33333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88.41666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.83333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>92.58333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>94.20833333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>98.16666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>102.4166667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105.7083333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>107.4583333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>110.1666667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>114.2916667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>118.125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>121.2083333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>124.8333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>126.2083333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>129.625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>132.2083333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>134.9583333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>137.4166667</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>141.0833333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>145.375</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>148.125</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>151.7083333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>154.375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>155.5416667</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.4583333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>164.375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>165.375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>170.125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>173.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>175.375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>180.25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>180.625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>182.6666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>185.625</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>193.125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>198.4583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$2:$E$82</c:f>
+              <c:f>Sheet3!$D$3:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2.166666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.166666667</c:v>
+                  <c:v>7.041666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.041666667</c:v>
+                  <c:v>11.33333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.75</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.75</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.45833333</c:v>
+                  <c:v>18.91666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.625</c:v>
+                  <c:v>20.66666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.66666667</c:v>
+                  <c:v>24.54166667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.29166667</c:v>
+                  <c:v>28.08333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.33333333</c:v>
+                  <c:v>29.95833333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.125</c:v>
+                  <c:v>32.45833333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.29166667</c:v>
+                  <c:v>36.91666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.875</c:v>
+                  <c:v>38.875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.29166667</c:v>
+                  <c:v>40.58333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.95833333</c:v>
+                  <c:v>44.54166667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.5</c:v>
+                  <c:v>46.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.79166667</c:v>
+                  <c:v>48.66666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.20833333</c:v>
+                  <c:v>51.45833333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.58333333</c:v>
+                  <c:v>54.58333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.625</c:v>
+                  <c:v>55.66666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.83333333</c:v>
+                  <c:v>58.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53.875</c:v>
+                  <c:v>60.83333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.08333333</c:v>
+                  <c:v>63.54166667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60.375</c:v>
+                  <c:v>65.375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.91666667</c:v>
+                  <c:v>68.625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>66.20833333</c:v>
+                  <c:v>72.04166667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>67.95833333</c:v>
+                  <c:v>75.33333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69.70833333</c:v>
+                  <c:v>76.75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71.16666667</c:v>
+                  <c:v>78.95833333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>73.75</c:v>
+                  <c:v>80.04166667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>75.0</c:v>
+                  <c:v>82.79166667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>79.58333333</c:v>
+                  <c:v>85.66666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>82.04166667</c:v>
+                  <c:v>87.33333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84.375</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>88.75</c:v>
+                  <c:v>91.33333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>90.75</c:v>
+                  <c:v>92.625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>92.66666667</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.5</c:v>
+                  <c:v>98.83333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>96.95833333</c:v>
+                  <c:v>100.75</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99.91666667</c:v>
+                  <c:v>103.0416667</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>101.1666667</c:v>
+                  <c:v>106.2083333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>103.0</c:v>
+                  <c:v>108.375</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>105.6666667</c:v>
+                  <c:v>109.375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>108.5416667</c:v>
+                  <c:v>110.7916667</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>111.5</c:v>
+                  <c:v>112.7916667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>115.25</c:v>
+                  <c:v>116.625</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>119.3333333</c:v>
+                  <c:v>120.1666667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>122.0416667</c:v>
+                  <c:v>122.4583333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>124.5</c:v>
+                  <c:v>124.5416667</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>126.2916667</c:v>
+                  <c:v>127.3333333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>128.6666667</c:v>
+                  <c:v>130.625</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>131.0416667</c:v>
+                  <c:v>131.75</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>132.625</c:v>
+                  <c:v>134.3333333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>135.1666667</c:v>
+                  <c:v>138.2083333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>137.75</c:v>
+                  <c:v>139.8333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>141.0833333</c:v>
+                  <c:v>141.1666667</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>142.875</c:v>
+                  <c:v>143.2083333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>145.7916667</c:v>
+                  <c:v>145.4583333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>147.875</c:v>
+                  <c:v>147.4166667</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>150.4583333</c:v>
+                  <c:v>149.9583333</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>152.5416667</c:v>
+                  <c:v>152.25</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>154.125</c:v>
+                  <c:v>154.3333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>156.25</c:v>
+                  <c:v>157.875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>159.2083333</c:v>
+                  <c:v>163.0416667</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>160.4583333</c:v>
+                  <c:v>165.3333333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>163.125</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>165.7916667</c:v>
+                  <c:v>170.5416667</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>169.4166667</c:v>
+                  <c:v>173.1666667</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>170.625</c:v>
+                  <c:v>175.8333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>171.5416667</c:v>
+                  <c:v>177.9166667</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>173.4166667</c:v>
+                  <c:v>180.625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>174.3333333</c:v>
+                  <c:v>182.8333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>178.0416667</c:v>
+                  <c:v>184.2083333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>180.1666667</c:v>
+                  <c:v>187.5833333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>182.6666667</c:v>
+                  <c:v>189.875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>184.625</c:v>
+                  <c:v>193.375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>187.4583333</c:v>
+                  <c:v>196.8333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>190.75</c:v>
+                  <c:v>199.625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>194.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>195.9583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5602,513 +4675,262 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
+              <c:f>Sheet3!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$82</c:f>
-              <c:strCache>
-                <c:ptCount val="81"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$3:$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>2.166666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5.041666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.375</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.291666667</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.916666667</c:v>
+                  <c:v>11.45833333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.791666667</c:v>
+                  <c:v>14.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.83333333</c:v>
+                  <c:v>16.66666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>19.29166667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.66666667</c:v>
+                  <c:v>23.33333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>26.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.5</c:v>
+                  <c:v>28.29166667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.54166667</c:v>
+                  <c:v>31.875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.125</c:v>
+                  <c:v>35.29166667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.45833333</c:v>
+                  <c:v>36.95833333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.83333333</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.25</c:v>
+                  <c:v>42.79166667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.33333333</c:v>
+                  <c:v>45.20833333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.04166667</c:v>
+                  <c:v>48.58333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.625</c:v>
+                  <c:v>50.625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.66666667</c:v>
+                  <c:v>51.83333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.66666667</c:v>
+                  <c:v>53.875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.41666667</c:v>
+                  <c:v>56.08333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.95833333</c:v>
+                  <c:v>60.375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52.375</c:v>
+                  <c:v>62.91666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55</c:v>
+                  <c:v>66.20833333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.25</c:v>
+                  <c:v>67.95833333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60.08333333</c:v>
+                  <c:v>69.70833333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63</c:v>
+                  <c:v>71.16666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.16666667</c:v>
+                  <c:v>73.75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>67.16666667</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.16666667</c:v>
+                  <c:v>79.58333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72.625</c:v>
+                  <c:v>82.04166667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>76.5</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>78.33333333</c:v>
+                  <c:v>88.75</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>80.66666667</c:v>
+                  <c:v>90.75</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>81.75</c:v>
+                  <c:v>92.66666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>84.375</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>86.33333333</c:v>
+                  <c:v>96.95833333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>88.41666667</c:v>
+                  <c:v>99.91666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>90.83333333</c:v>
+                  <c:v>101.1666667</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92.58333333</c:v>
+                  <c:v>103.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>94.20833333</c:v>
+                  <c:v>105.6666667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>96.125</c:v>
+                  <c:v>108.5416667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>98.16666667</c:v>
+                  <c:v>111.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>102.4166667</c:v>
+                  <c:v>115.25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>105.7083333</c:v>
+                  <c:v>119.3333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>107.4583333</c:v>
+                  <c:v>122.0416667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>110.1666667</c:v>
+                  <c:v>124.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>114.2916667</c:v>
+                  <c:v>126.2916667</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>118.125</c:v>
+                  <c:v>128.6666667</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>121.2083333</c:v>
+                  <c:v>131.0416667</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>123.625</c:v>
+                  <c:v>132.625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>124.8333333</c:v>
+                  <c:v>135.1666667</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>126.2083333</c:v>
+                  <c:v>137.75</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>129.625</c:v>
+                  <c:v>141.0833333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>132.2083333</c:v>
+                  <c:v>142.875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>134.9583333</c:v>
+                  <c:v>145.7916667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>137.4166667</c:v>
+                  <c:v>147.875</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>141.0833333</c:v>
+                  <c:v>150.4583333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>145.375</c:v>
+                  <c:v>152.5416667</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>148.125</c:v>
+                  <c:v>154.125</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>151.7083333</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>154.375</c:v>
+                  <c:v>159.2083333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>155.5416667</c:v>
+                  <c:v>160.4583333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>161.4583333</c:v>
+                  <c:v>163.125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164.375</c:v>
+                  <c:v>165.7916667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>165.375</c:v>
+                  <c:v>169.4166667</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>170.125</c:v>
+                  <c:v>170.625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>173.25</c:v>
+                  <c:v>171.5416667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>175.375</c:v>
+                  <c:v>173.4166667</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
+                  <c:v>174.3333333</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>180.25</c:v>
+                  <c:v>178.0416667</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>180.625</c:v>
+                  <c:v>180.1666667</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>182.6666667</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>185.625</c:v>
+                  <c:v>184.625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>187.875</c:v>
+                  <c:v>187.4583333</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>191</c:v>
+                  <c:v>190.75</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>193.125</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
+                  <c:v>195.9583333</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>198.4583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$F$2:$F$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.708333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.16666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.95833333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.29166667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31.91666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37.125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>38.83333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43.29166667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45.79166667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47.625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>48.83333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51.95833333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>54.66666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>58.04166667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>59.91666667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>61.66666667</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>64.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>66.95833333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>69.54166667</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>73.375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>75.95833333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>78.83333333</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>85.95833333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>88.70833333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>93.04166667</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>93.70833333</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>97.20833333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100.0416667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>101.6666667</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>104.7083333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>108.2083333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>111.5833333</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>115.25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>119.2083333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>122.5833333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>124.5833333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>127.125</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>128.5416667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>131.7083333</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>132.4583333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>133.25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>135.4166667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>138.2916667</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>141.4583333</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>145.7916667</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>147.25</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>150.4166667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>152.625</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>154.625</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>157.875</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>160.2916667</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>162.9583333</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>165.9583333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>167.875</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>171.25</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>173.4583333</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>174.3333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>177.4166667</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>179.8333333</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>182.0416667</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>185.4166667</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>185.9166667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>187.125</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>188.8333333</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>189.75</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>192.0416667</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>198.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6121,513 +4943,262 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$G$1</c:f>
+              <c:f>Sheet3!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$82</c:f>
-              <c:strCache>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.291666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.916666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.791666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.83333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.66666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.54166667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.45833333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.83333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.33333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.04166667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42.66666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.66666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46.41666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49.95833333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.08333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>65.16666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.16666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.16666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72.625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>78.33333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80.66666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>81.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>86.33333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88.41666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.83333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>92.58333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>94.20833333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>98.16666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>102.4166667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105.7083333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>107.4583333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>110.1666667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>114.2916667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>118.125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>121.2083333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>124.8333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>126.2083333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>129.625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>132.2083333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>134.9583333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>137.4166667</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>141.0833333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>145.375</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>148.125</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>151.7083333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>154.375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>155.5416667</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.4583333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>164.375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>165.375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>170.125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>173.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>175.375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>180.25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>180.625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>182.6666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>185.625</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>193.125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>198.4583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$2:$G$82</c:f>
+              <c:f>Sheet3!$F$3:$F$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.666666667</c:v>
+                  <c:v>3.666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.041666667</c:v>
+                  <c:v>5.333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.375</c:v>
+                  <c:v>9.708333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.125</c:v>
+                  <c:v>12.16666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.45833333</c:v>
+                  <c:v>15.875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.33333333</c:v>
+                  <c:v>19.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.20833333</c:v>
+                  <c:v>21.95833333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.95833333</c:v>
+                  <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.83333333</c:v>
+                  <c:v>28.29166667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.16666667</c:v>
+                  <c:v>31.91666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.20833333</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.41666667</c:v>
+                  <c:v>37.125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.41666667</c:v>
+                  <c:v>38.83333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.70833333</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.04166667</c:v>
+                  <c:v>43.29166667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.95833333</c:v>
+                  <c:v>45.79166667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.75</c:v>
+                  <c:v>47.625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.33333333</c:v>
+                  <c:v>48.83333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44.625</c:v>
+                  <c:v>51.95833333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47.70833333</c:v>
+                  <c:v>54.66666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.79166667</c:v>
+                  <c:v>58.04166667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.5</c:v>
+                  <c:v>59.91666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56.625</c:v>
+                  <c:v>61.66666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>59.83333333</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62.95833333</c:v>
+                  <c:v>66.95833333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64.41666667</c:v>
+                  <c:v>69.54166667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66.83333333</c:v>
+                  <c:v>73.375</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>67.25</c:v>
+                  <c:v>75.95833333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69.875</c:v>
+                  <c:v>78.83333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>72.875</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>75.45833333</c:v>
+                  <c:v>85.95833333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77.91666667</c:v>
+                  <c:v>88.70833333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81.625</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>84.79166667</c:v>
+                  <c:v>93.04166667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>86.91666667</c:v>
+                  <c:v>93.70833333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.54166667</c:v>
+                  <c:v>97.20833333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90.25</c:v>
+                  <c:v>100.0416667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>92.04166667</c:v>
+                  <c:v>101.6666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>94.625</c:v>
+                  <c:v>104.7083333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>96.75</c:v>
+                  <c:v>108.2083333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>99.79166667</c:v>
+                  <c:v>111.5833333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>102.4583333</c:v>
+                  <c:v>115.25</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>104.5416667</c:v>
+                  <c:v>119.2083333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>109.0</c:v>
+                  <c:v>122.5833333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>109.4166667</c:v>
+                  <c:v>124.5833333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>110.3333333</c:v>
+                  <c:v>127.125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>112.5833333</c:v>
+                  <c:v>128.5416667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>114.4166667</c:v>
+                  <c:v>131.7083333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>117.4583333</c:v>
+                  <c:v>132.4583333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>119.5416667</c:v>
+                  <c:v>133.25</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>122.125</c:v>
+                  <c:v>135.4166667</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>124.75</c:v>
+                  <c:v>138.2916667</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>127.2083333</c:v>
+                  <c:v>141.4583333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>129.3333333</c:v>
+                  <c:v>143.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>131.125</c:v>
+                  <c:v>145.7916667</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>132.9166667</c:v>
+                  <c:v>147.25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>134.2916667</c:v>
+                  <c:v>150.4166667</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>136.0</c:v>
+                  <c:v>152.625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>138.8333333</c:v>
+                  <c:v>154.625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>139.625</c:v>
+                  <c:v>157.875</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>142.1666667</c:v>
+                  <c:v>160.2916667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>144.2916667</c:v>
+                  <c:v>162.9583333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>147.125</c:v>
+                  <c:v>165.9583333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>151.25</c:v>
+                  <c:v>167.875</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>154.25</c:v>
+                  <c:v>171.25</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>156.6666667</c:v>
+                  <c:v>173.4583333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>160.6666667</c:v>
+                  <c:v>174.3333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>163.3333333</c:v>
+                  <c:v>177.4166667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>166.1666667</c:v>
+                  <c:v>179.8333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>167.4166667</c:v>
+                  <c:v>182.0416667</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>171.5833333</c:v>
+                  <c:v>185.4166667</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>175.8333333</c:v>
+                  <c:v>185.9166667</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>179.0</c:v>
+                  <c:v>187.125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>182.75</c:v>
+                  <c:v>188.8333333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>186.5416667</c:v>
+                  <c:v>189.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>189.1666667</c:v>
+                  <c:v>192.0416667</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>193.75</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
+                  <c:v>198.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>198.1666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6640,513 +5211,262 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$H$1</c:f>
+              <c:f>Sheet3!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$82</c:f>
-              <c:strCache>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.291666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.916666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.791666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.83333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.66666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.54166667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.45833333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.83333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.33333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.04166667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42.66666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.66666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46.41666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49.95833333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.08333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>65.16666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.16666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.16666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72.625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>78.33333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80.66666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>81.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>86.33333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88.41666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.83333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>92.58333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>94.20833333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>98.16666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>102.4166667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105.7083333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>107.4583333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>110.1666667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>114.2916667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>118.125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>121.2083333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>124.8333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>126.2083333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>129.625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>132.2083333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>134.9583333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>137.4166667</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>141.0833333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>145.375</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>148.125</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>151.7083333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>154.375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>155.5416667</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.4583333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>164.375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>165.375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>170.125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>173.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>175.375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>180.25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>180.625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>182.6666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>185.625</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>193.125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>198.4583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$H$2:$H$82</c:f>
+              <c:f>Sheet3!$G$3:$G$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2.666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.833333333</c:v>
+                  <c:v>4.041666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.75</c:v>
+                  <c:v>6.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.791666667</c:v>
+                  <c:v>9.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.95833333</c:v>
+                  <c:v>10.45833333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.41666667</c:v>
+                  <c:v>11.33333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.04166667</c:v>
+                  <c:v>14.20833333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.08333333</c:v>
+                  <c:v>15.95833333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.0</c:v>
+                  <c:v>17.83333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.66666667</c:v>
+                  <c:v>21.16666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.83333333</c:v>
+                  <c:v>23.20833333</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>26.41666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>30.41666667</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.75</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.0</c:v>
+                  <c:v>32.70833333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.66666667</c:v>
+                  <c:v>34.04166667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41.75</c:v>
+                  <c:v>37.95833333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44.45833333</c:v>
+                  <c:v>39.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.625</c:v>
+                  <c:v>42.33333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.33333333</c:v>
+                  <c:v>44.625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.08333333</c:v>
+                  <c:v>47.70833333</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>50.79166667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>56.625</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>58.29166667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>60.95833333</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>62.79166667</c:v>
+                  <c:v>59.83333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>65.25</c:v>
+                  <c:v>62.95833333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>67.16666667</c:v>
+                  <c:v>64.41666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>69.625</c:v>
+                  <c:v>66.83333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.04166667</c:v>
+                  <c:v>67.25</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>72.20833333</c:v>
+                  <c:v>69.875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>75.25</c:v>
+                  <c:v>72.875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76.83333333</c:v>
+                  <c:v>75.45833333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>79.95833333</c:v>
+                  <c:v>77.91666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>82.91666667</c:v>
+                  <c:v>81.625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>87.25</c:v>
+                  <c:v>84.79166667</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>90.91666667</c:v>
+                  <c:v>86.91666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>92.41666667</c:v>
+                  <c:v>88.54166667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>94.125</c:v>
+                  <c:v>90.25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97.70833333</c:v>
+                  <c:v>92.04166667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99.41666667</c:v>
+                  <c:v>94.625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.4166667</c:v>
+                  <c:v>96.75</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>105.7916667</c:v>
+                  <c:v>99.79166667</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>107.25</c:v>
+                  <c:v>102.4583333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>108.6666667</c:v>
+                  <c:v>104.5416667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>110.0</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>110.9166667</c:v>
+                  <c:v>109.4166667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>113.4166667</c:v>
+                  <c:v>110.3333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>116.25</c:v>
+                  <c:v>112.5833333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>119.0</c:v>
+                  <c:v>114.4166667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122.5833333</c:v>
+                  <c:v>117.4583333</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>119.5416667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>122.125</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>124.75</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>126.625</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>129.0</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>131.3333333</c:v>
+                  <c:v>127.2083333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>135.2916667</c:v>
+                  <c:v>129.3333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>137.5</c:v>
+                  <c:v>131.125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>139.5416667</c:v>
+                  <c:v>132.9166667</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>142.4166667</c:v>
+                  <c:v>134.2916667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>145.2916667</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>148.2916667</c:v>
+                  <c:v>138.8333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>150.8333333</c:v>
+                  <c:v>139.625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>153.5416667</c:v>
+                  <c:v>142.1666667</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>155.4583333</c:v>
+                  <c:v>144.2916667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>159.5</c:v>
+                  <c:v>147.125</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>163.6666667</c:v>
+                  <c:v>151.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>165.7083333</c:v>
+                  <c:v>154.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>168.5416667</c:v>
+                  <c:v>156.6666667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>169.9583333</c:v>
+                  <c:v>160.6666667</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>172.5833333</c:v>
+                  <c:v>163.3333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>175.0833333</c:v>
+                  <c:v>166.1666667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>178.2083333</c:v>
+                  <c:v>167.4166667</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>182.25</c:v>
+                  <c:v>171.5833333</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>185.5</c:v>
+                  <c:v>175.8333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>188.875</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>190.4166667</c:v>
+                  <c:v>182.75</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>192.7083333</c:v>
+                  <c:v>186.5416667</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>193.5</c:v>
+                  <c:v>189.1666667</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>195.0416667</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>196.125</c:v>
+                  <c:v>196.3333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>199.5833333</c:v>
+                  <c:v>198.1666667</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7159,513 +5479,262 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$I$1</c:f>
+              <c:f>Sheet3!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$82</c:f>
-              <c:strCache>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.291666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.916666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.791666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.83333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.66666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.54166667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.45833333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.83333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.33333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.04166667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42.66666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.66666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46.41666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49.95833333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.08333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>65.16666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.16666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.16666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72.625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>78.33333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80.66666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>81.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>86.33333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88.41666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.83333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>92.58333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>94.20833333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>98.16666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>102.4166667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105.7083333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>107.4583333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>110.1666667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>114.2916667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>118.125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>121.2083333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>124.8333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>126.2083333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>129.625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>132.2083333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>134.9583333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>137.4166667</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>141.0833333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>145.375</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>148.125</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>151.7083333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>154.375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>155.5416667</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.4583333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>164.375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>165.375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>170.125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>173.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>175.375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>180.25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>180.625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>182.6666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>185.625</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>193.125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>198.4583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$I$2:$I$82</c:f>
+              <c:f>Sheet3!$H$3:$H$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2.833333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.33333333333333</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.91666666666666</c:v>
+                  <c:v>7.791666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.83333333333333</c:v>
+                  <c:v>10.95833333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.29166666666666</c:v>
+                  <c:v>14.41666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.0</c:v>
+                  <c:v>16.04166667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.8333333333333</c:v>
+                  <c:v>20.08333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.375</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.4166666666666</c:v>
+                  <c:v>25.66666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.0416666666666</c:v>
+                  <c:v>28.83333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.3333333333333</c:v>
+                  <c:v>30.41666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.75</c:v>
+                  <c:v>33.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.0416666666666</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.8333333333333</c:v>
+                  <c:v>38.66666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.5</c:v>
+                  <c:v>41.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.0416666666666</c:v>
+                  <c:v>44.45833333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.0416666666666</c:v>
+                  <c:v>47.625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.5</c:v>
+                  <c:v>50.33333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.4583333333333</c:v>
+                  <c:v>53.08333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44.5416666666666</c:v>
+                  <c:v>56.625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47.2083333333333</c:v>
+                  <c:v>58.29166667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49.4166666666666</c:v>
+                  <c:v>60.95833333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.5833333333333</c:v>
+                  <c:v>62.79166667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54.75</c:v>
+                  <c:v>65.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.4166666666666</c:v>
+                  <c:v>67.16666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.3333333333333</c:v>
+                  <c:v>69.625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60.125</c:v>
+                  <c:v>70.04166667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61.3333333333333</c:v>
+                  <c:v>72.20833333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63.3333333333333</c:v>
+                  <c:v>75.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68.3333333333333</c:v>
+                  <c:v>76.83333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.4166666666666</c:v>
+                  <c:v>79.95833333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72.5833333333333</c:v>
+                  <c:v>82.91666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74.375</c:v>
+                  <c:v>87.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>76.25</c:v>
+                  <c:v>90.91666667</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78.2083333333333</c:v>
+                  <c:v>92.41666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>79.5</c:v>
+                  <c:v>94.125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>82.7083333333333</c:v>
+                  <c:v>97.70833333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>84.5416666666666</c:v>
+                  <c:v>99.41666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>86.4583333333333</c:v>
+                  <c:v>100.4166667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>88.9583333333333</c:v>
+                  <c:v>105.7916667</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90.4166666666666</c:v>
+                  <c:v>107.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>93.9583333333333</c:v>
+                  <c:v>108.6666667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>95.4166666666666</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>97.1666666666666</c:v>
+                  <c:v>110.9166667</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>100.375</c:v>
+                  <c:v>113.4166667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>103.208333333333</c:v>
+                  <c:v>116.25</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>105.875</c:v>
+                  <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>109.291666666666</c:v>
+                  <c:v>122.5833333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>111.958333333333</c:v>
+                  <c:v>124.75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>113.75</c:v>
+                  <c:v>126.625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>115.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>116.75</c:v>
+                  <c:v>131.3333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>119.75</c:v>
+                  <c:v>135.2916667</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>122.208333333333</c:v>
+                  <c:v>137.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>125.083333333333</c:v>
+                  <c:v>139.5416667</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>128.791666666666</c:v>
+                  <c:v>142.4166667</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>130.416666666666</c:v>
+                  <c:v>145.2916667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>132.125</c:v>
+                  <c:v>148.2916667</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>134.833333333333</c:v>
+                  <c:v>150.8333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>137.625</c:v>
+                  <c:v>153.5416667</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>139.875</c:v>
+                  <c:v>155.4583333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>142.0</c:v>
+                  <c:v>159.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>143.625</c:v>
+                  <c:v>163.6666667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>146.666666666666</c:v>
+                  <c:v>165.7083333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>148.291666666666</c:v>
+                  <c:v>168.5416667</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>151.291666666666</c:v>
+                  <c:v>169.9583333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>155.583333333333</c:v>
+                  <c:v>172.5833333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>157.833333333333</c:v>
+                  <c:v>175.0833333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>161.333333333333</c:v>
+                  <c:v>178.2083333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>165.166666666666</c:v>
+                  <c:v>182.25</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>167.208333333333</c:v>
+                  <c:v>185.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>170.166666666666</c:v>
+                  <c:v>188.875</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>172.25</c:v>
+                  <c:v>190.4166667</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>174.958333333333</c:v>
+                  <c:v>192.7083333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>176.958333333333</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>181.0</c:v>
+                  <c:v>195.0416667</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>185.208333333333</c:v>
+                  <c:v>196.125</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>186.875</c:v>
+                  <c:v>199.5833333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>190.041666666666</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>194.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7678,513 +5747,530 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$J$1</c:f>
+              <c:f>Sheet3!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$3:$I$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>3.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.91666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.83333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.29166666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.0416666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.0416666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.0416666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.0416666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.4583333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.5416666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.2083333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.5833333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60.125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>72.5833333333333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>78.2083333333333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82.7083333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84.5416666666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86.4583333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>88.9583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93.9583333333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>95.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>97.1666666666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>103.208333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>105.875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>109.291666666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>111.958333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>113.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>116.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>119.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>122.208333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>125.083333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>128.791666666666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>130.416666666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>132.125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>134.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>137.625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>139.875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>143.625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>146.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>148.291666666666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>151.291666666666</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>155.583333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>157.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>161.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>165.166666666666</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>167.208333333333</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>170.166666666666</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>172.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>174.958333333333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>176.958333333333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>185.208333333333</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>186.875</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>190.041666666666</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>194.416666666666</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$2:$A$82</c:f>
+              <c:f>Sheet3!$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="81"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v> Taste 0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.291666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.916666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.791666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.83333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.66666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.54166667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.45833333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.83333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.33333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.04166667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42.66666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.66666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46.41666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49.95833333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.08333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>65.16666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.16666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.16666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72.625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>78.33333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80.66666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>81.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>86.33333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88.41666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.83333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>92.58333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>94.20833333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>98.16666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>102.4166667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105.7083333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>107.4583333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>110.1666667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>114.2916667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>118.125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>121.2083333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>124.8333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>126.2083333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>129.625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>132.2083333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>134.9583333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>137.4166667</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>141.0833333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>145.375</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>148.125</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>151.7083333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>154.375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>155.5416667</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.4583333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>164.375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>165.375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>170.125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>173.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>175.375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>179.1666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>180.25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>180.625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>182.6666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>185.625</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>193.125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>196.3333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>198.4583333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>200</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$J$2:$J$82</c:f>
+              <c:f>Sheet3!$J$3:$J$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>4.29166666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.29166666666666</c:v>
+                  <c:v>6.54166666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.54166666666666</c:v>
+                  <c:v>8.54166666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.54166666666666</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.25</c:v>
+                  <c:v>13.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.1666666666666</c:v>
+                  <c:v>15.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.875</c:v>
+                  <c:v>17.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.8333333333333</c:v>
+                  <c:v>21.7083333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.7083333333333</c:v>
+                  <c:v>24.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.1666666666666</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.0</c:v>
+                  <c:v>28.625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.625</c:v>
+                  <c:v>31.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.6666666666666</c:v>
+                  <c:v>34.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.5833333333333</c:v>
+                  <c:v>38.375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.375</c:v>
+                  <c:v>41.0416666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.0416666666666</c:v>
+                  <c:v>44.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.1666666666666</c:v>
+                  <c:v>47.7083333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.7083333333333</c:v>
+                  <c:v>51.5416666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.5416666666666</c:v>
+                  <c:v>54.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.75</c:v>
+                  <c:v>56.0833333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.0833333333333</c:v>
+                  <c:v>59.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.5833333333333</c:v>
+                  <c:v>63.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63.1666666666666</c:v>
+                  <c:v>64.9583333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>64.9583333333333</c:v>
+                  <c:v>68.2083333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68.2083333333333</c:v>
+                  <c:v>68.5416666666666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68.5416666666666</c:v>
+                  <c:v>71.125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>71.125</c:v>
+                  <c:v>73.2083333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73.2083333333333</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>76.5</c:v>
+                  <c:v>79.4583333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>79.4583333333333</c:v>
+                  <c:v>80.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>80.75</c:v>
+                  <c:v>82.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>82.6666666666666</c:v>
+                  <c:v>85.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.5</c:v>
+                  <c:v>86.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>86.6666666666666</c:v>
+                  <c:v>88.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88.1666666666666</c:v>
+                  <c:v>91.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>91.5833333333333</c:v>
+                  <c:v>95.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.3333333333333</c:v>
+                  <c:v>97.7083333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>97.7083333333333</c:v>
+                  <c:v>100.708333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.708333333333</c:v>
+                  <c:v>103.458333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>103.458333333333</c:v>
+                  <c:v>107.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>107.166666666666</c:v>
+                  <c:v>108.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>108.583333333333</c:v>
+                  <c:v>111.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>111.333333333333</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>114.0</c:v>
+                  <c:v>116.875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>116.875</c:v>
+                  <c:v>119.958333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>119.958333333333</c:v>
+                  <c:v>121.708333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>121.708333333333</c:v>
+                  <c:v>122.875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122.875</c:v>
+                  <c:v>125.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>125.833333333333</c:v>
+                  <c:v>128.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>128.916666666666</c:v>
+                  <c:v>130.708333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>130.708333333333</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>134.0</c:v>
+                  <c:v>136.958333333333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>136.958333333333</c:v>
+                  <c:v>140.208333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>140.208333333333</c:v>
+                  <c:v>143.208333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>143.208333333333</c:v>
+                  <c:v>145.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>145.5</c:v>
+                  <c:v>147.708333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>147.708333333333</c:v>
+                  <c:v>150.25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>150.25</c:v>
+                  <c:v>152.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>152.833333333333</c:v>
+                  <c:v>156.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>156.583333333333</c:v>
+                  <c:v>159.875</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>159.875</c:v>
+                  <c:v>162.458333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>162.458333333333</c:v>
+                  <c:v>165.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>165.333333333333</c:v>
+                  <c:v>166.708333333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>166.708333333333</c:v>
+                  <c:v>170.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>170.5</c:v>
+                  <c:v>173.708333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>173.708333333333</c:v>
+                  <c:v>175.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>175.583333333333</c:v>
+                  <c:v>178.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>178.25</c:v>
+                  <c:v>181.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>181.25</c:v>
+                  <c:v>184.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>184.833333333333</c:v>
+                  <c:v>187.375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>187.375</c:v>
+                  <c:v>189.25</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>189.25</c:v>
+                  <c:v>191.291666666666</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>191.291666666666</c:v>
+                  <c:v>193.458333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>193.458333333333</c:v>
+                  <c:v>196.125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>196.125</c:v>
+                  <c:v>197.541666666666</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>197.541666666666</c:v>
+                  <c:v>199.458333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>199.458333333333</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8202,20 +6288,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082418440"/>
-        <c:axId val="2081499144"/>
+        <c:axId val="2102547144"/>
+        <c:axId val="-2116023848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082418440"/>
+        <c:axId val="2102547144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081499144"/>
+        <c:crossAx val="-2116023848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8223,18 +6328,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081499144"/>
+        <c:axId val="-2116023848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082418440"/>
+        <c:crossAx val="2102547144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8295,16 +6419,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8330,20 +6454,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8685,8 +6809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="9" sqref="N1:N1048576 Q1:Q1048576 T1:T1048576 W1:W1048576 Z1:Z1048576 AC1:AC1048576 K1:K1048576 H1:H1048576 E1:E1048576 B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14418,15 +12542,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1">
         <v>100</v>
       </c>
@@ -14460,11 +12584,8 @@
       <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14498,11 +12619,8 @@
       <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14534,13 +12652,11 @@
         <v>2.3333333333333299</v>
       </c>
       <c r="K3">
+        <f>AVERAGE(A3:J3)</f>
         <v>2.3541666666333327</v>
       </c>
-      <c r="L3">
-        <v>2.3666666667333329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>6.4895833333333304</v>
       </c>
@@ -14572,13 +12688,11 @@
         <v>9.3854166666666607</v>
       </c>
       <c r="K4">
+        <f t="shared" ref="K4:K67" si="0">AVERAGE(A4:J4)</f>
         <v>8.4437499999666645</v>
       </c>
-      <c r="L4">
-        <v>4.5750000001333317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>13.6354166666666</v>
       </c>
@@ -14610,13 +12724,11 @@
         <v>16.3645833333333</v>
       </c>
       <c r="K5">
+        <f t="shared" si="0"/>
         <v>15.481250000666648</v>
       </c>
-      <c r="L5">
-        <v>7.108333332966664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>21.5208333333333</v>
       </c>
@@ -14648,13 +12760,11 @@
         <v>23.7395833333333</v>
       </c>
       <c r="K6">
+        <f t="shared" si="0"/>
         <v>22.896875000333324</v>
       </c>
-      <c r="L6">
-        <v>9.6124999995999971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>29.0520833333333</v>
       </c>
@@ -14686,13 +12796,11 @@
         <v>30.7708333333333</v>
       </c>
       <c r="K7">
+        <f t="shared" si="0"/>
         <v>30.380208333333321</v>
       </c>
-      <c r="L7">
-        <v>12.045833333666668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>36.7083333333333</v>
       </c>
@@ -14724,13 +12832,11 @@
         <v>38.5</v>
       </c>
       <c r="K8">
+        <f t="shared" si="0"/>
         <v>37.948958333999983</v>
       </c>
-      <c r="L8">
-        <v>14.120833333333319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>44.8333333333333</v>
       </c>
@@ -14762,13 +12868,11 @@
         <v>46.15625</v>
       </c>
       <c r="K9">
+        <f t="shared" si="0"/>
         <v>45.236458333999984</v>
       </c>
-      <c r="L9">
-        <v>16.9375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>52.9583333333333</v>
       </c>
@@ -14800,13 +12904,11 @@
         <v>54.125</v>
       </c>
       <c r="K10">
+        <f t="shared" si="0"/>
         <v>52.673958333999984</v>
       </c>
-      <c r="L10">
-        <v>19.470833332666651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>59.8333333333333</v>
       </c>
@@ -14838,13 +12940,11 @@
         <v>61.15625</v>
       </c>
       <c r="K11">
+        <f t="shared" si="0"/>
         <v>59.978125000999988</v>
       </c>
-      <c r="L11">
-        <v>22.304166665999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>67.9583333333333</v>
       </c>
@@ -14876,13 +12976,11 @@
         <v>68.5</v>
       </c>
       <c r="K12">
+        <f t="shared" si="0"/>
         <v>67.410416666999993</v>
       </c>
-      <c r="L12">
-        <v>24.908333332999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>75.6145833333333</v>
       </c>
@@ -14914,13 +13012,11 @@
         <v>75.375</v>
       </c>
       <c r="K13">
+        <f t="shared" si="0"/>
         <v>74.940625001000001</v>
       </c>
-      <c r="L13">
-        <v>27.404166666666661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>83.4270833333333</v>
       </c>
@@ -14952,13 +13048,11 @@
         <v>83.34375</v>
       </c>
       <c r="K14">
+        <f t="shared" si="0"/>
         <v>82.346875001000001</v>
       </c>
-      <c r="L14">
-        <v>30.345833333666661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>90.9270833333333</v>
       </c>
@@ -14990,13 +13084,11 @@
         <v>90.375</v>
       </c>
       <c r="K15">
+        <f t="shared" si="0"/>
         <v>89.879166666999993</v>
       </c>
-      <c r="L15">
-        <v>32.900000000333321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>98.5833333333333</v>
       </c>
@@ -15028,13 +13120,11 @@
         <v>97.5625</v>
       </c>
       <c r="K16">
+        <f t="shared" si="0"/>
         <v>97.430208332999996</v>
       </c>
-      <c r="L16">
-        <v>35.179166665666664</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>105.770833333333</v>
       </c>
@@ -15066,13 +13156,11 @@
         <v>104.28125</v>
       </c>
       <c r="K17">
+        <f t="shared" si="0"/>
         <v>104.7312499999999</v>
       </c>
-      <c r="L17">
-        <v>37.908333333666654</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>112.958333333333</v>
       </c>
@@ -15104,13 +13192,11 @@
         <v>111.15625</v>
       </c>
       <c r="K18">
+        <f t="shared" si="0"/>
         <v>111.8322916599999</v>
       </c>
-      <c r="L18">
-        <v>40.620833333666653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>119.90625</v>
       </c>
@@ -15142,13 +13228,11 @@
         <v>117.875</v>
       </c>
       <c r="K19">
+        <f t="shared" si="0"/>
         <v>119.13020832333329</v>
       </c>
-      <c r="L19">
-        <v>42.879166667333322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>126.71875</v>
       </c>
@@ -15180,13 +13264,11 @@
         <v>124.03125</v>
       </c>
       <c r="K20">
+        <f t="shared" si="0"/>
         <v>126.10208331999999</v>
       </c>
-      <c r="L20">
-        <v>45.608333331666664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>133.708333333333</v>
       </c>
@@ -15218,13 +13300,11 @@
         <v>130.65625</v>
       </c>
       <c r="K21">
+        <f t="shared" si="0"/>
         <v>133.02291666999992</v>
       </c>
-      <c r="L21">
-        <v>48.308333332999986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>140.916666666666</v>
       </c>
@@ -15256,13 +13336,11 @@
         <v>138.0625</v>
       </c>
       <c r="K22">
+        <f t="shared" si="0"/>
         <v>139.9656249999999</v>
       </c>
-      <c r="L22">
-        <v>51.054166666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>148.270833333333</v>
       </c>
@@ -15294,13 +13372,11 @@
         <v>145.895833333333</v>
       </c>
       <c r="K23">
+        <f t="shared" si="0"/>
         <v>147.12812498999992</v>
       </c>
-      <c r="L23">
-        <v>53.054166667666642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>155.302083333333</v>
       </c>
@@ -15332,13 +13408,11 @@
         <v>152.979166666666</v>
       </c>
       <c r="K24">
+        <f t="shared" si="0"/>
         <v>154.08229166333319</v>
       </c>
-      <c r="L24">
-        <v>55.837499998999988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>162.989583333333</v>
       </c>
@@ -15370,13 +13444,11 @@
         <v>159.166666666666</v>
       </c>
       <c r="K25">
+        <f t="shared" si="0"/>
         <v>161.22812498666653</v>
       </c>
-      <c r="L25">
-        <v>58.370833333666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>170.666666666666</v>
       </c>
@@ -15408,13 +13480,11 @@
         <v>166.34375</v>
       </c>
       <c r="K26">
+        <f t="shared" si="0"/>
         <v>168.0916666599999</v>
       </c>
-      <c r="L26">
-        <v>60.716666666999984</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>177.145833333333</v>
       </c>
@@ -15446,13 +13516,11 @@
         <v>173.197916666666</v>
       </c>
       <c r="K27">
+        <f t="shared" si="0"/>
         <v>175.04270832999993</v>
       </c>
-      <c r="L27">
-        <v>63.529166665666651</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>184.020833333333</v>
       </c>
@@ -15484,13 +13552,11 @@
         <v>181.322916666666</v>
       </c>
       <c r="K28">
+        <f t="shared" si="0"/>
         <v>182.10729165999993</v>
       </c>
-      <c r="L28">
-        <v>65.854166666999987</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>190.25</v>
       </c>
@@ -15522,13 +13588,11 @@
         <v>188.46875</v>
       </c>
       <c r="K29">
+        <f t="shared" si="0"/>
         <v>188.90208333333331</v>
       </c>
-      <c r="L29">
-        <v>68.391666666333336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>197.041666666666</v>
       </c>
@@ -15560,13 +13624,11 @@
         <v>195.65625</v>
       </c>
       <c r="K30">
+        <f t="shared" si="0"/>
         <v>195.6208333433332</v>
       </c>
-      <c r="L30">
-        <v>70.616666666333316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>203.375</v>
       </c>
@@ -15598,13 +13660,11 @@
         <v>202.125</v>
       </c>
       <c r="K31">
+        <f t="shared" si="0"/>
         <v>202.29375000333329</v>
       </c>
-      <c r="L31">
-        <v>73.274999998999988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>209.416666666666</v>
       </c>
@@ -15636,13 +13696,11 @@
         <v>208.84375</v>
       </c>
       <c r="K32">
+        <f t="shared" si="0"/>
         <v>208.99583333333322</v>
       </c>
-      <c r="L32">
-        <v>75.399999999666633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>216.302083333333</v>
       </c>
@@ -15674,13 +13732,11 @@
         <v>215.979166666666</v>
       </c>
       <c r="K33">
+        <f t="shared" si="0"/>
         <v>215.31562499666651</v>
       </c>
-      <c r="L33">
-        <v>78.304166666333316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>222.416666666666</v>
       </c>
@@ -15712,13 +13768,11 @@
         <v>223</v>
       </c>
       <c r="K34">
+        <f t="shared" si="0"/>
         <v>221.8125000066666</v>
       </c>
-      <c r="L34">
-        <v>80.983333334666668</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>228.666666666666</v>
       </c>
@@ -15750,13 +13804,11 @@
         <v>229.375</v>
       </c>
       <c r="K35">
+        <f t="shared" si="0"/>
         <v>228.18750000333321</v>
       </c>
-      <c r="L35">
-        <v>83.433333333333323</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>235.5</v>
       </c>
@@ -15788,13 +13840,11 @@
         <v>235.583333333333</v>
       </c>
       <c r="K36">
+        <f t="shared" si="0"/>
         <v>234.55833332666663</v>
       </c>
-      <c r="L36">
-        <v>86.216666667666658</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>242.145833333333</v>
       </c>
@@ -15826,13 +13876,11 @@
         <v>242.166666666666</v>
       </c>
       <c r="K37">
+        <f t="shared" si="0"/>
         <v>241.1281249999999</v>
       </c>
-      <c r="L37">
-        <v>88.137500000666677</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>248.53125</v>
       </c>
@@ -15864,13 +13912,11 @@
         <v>247.395833333333</v>
       </c>
       <c r="K38">
+        <f t="shared" si="0"/>
         <v>247.19791665999992</v>
       </c>
-      <c r="L38">
-        <v>90.541666667666647</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>254.166666666666</v>
       </c>
@@ -15902,13 +13948,11 @@
         <v>251.416666666666</v>
       </c>
       <c r="K39">
+        <f t="shared" si="0"/>
         <v>252.60729167333321</v>
       </c>
-      <c r="L39">
-        <v>93.220833329333317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>258.979166666666</v>
       </c>
@@ -15940,13 +13984,11 @@
         <v>256.53125</v>
       </c>
       <c r="K40">
+        <f t="shared" si="0"/>
         <v>257.64166666333324</v>
       </c>
-      <c r="L40">
-        <v>95.500000000333316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>264.541666666666</v>
       </c>
@@ -15978,13 +14020,11 @@
         <v>260.53125</v>
       </c>
       <c r="K41">
+        <f t="shared" si="0"/>
         <v>262.65729166666659</v>
       </c>
-      <c r="L41">
-        <v>98.004166673999947</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>268.89583333333297</v>
       </c>
@@ -16016,13 +14056,11 @@
         <v>264.09375</v>
       </c>
       <c r="K42">
+        <f t="shared" si="0"/>
         <v>266.76666665666664</v>
       </c>
-      <c r="L42">
-        <v>100.2833333433333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>271.822916666666</v>
       </c>
@@ -16054,13 +14092,11 @@
         <v>267.166666666666</v>
       </c>
       <c r="K43">
+        <f t="shared" si="0"/>
         <v>270.31145832999982</v>
       </c>
-      <c r="L43">
-        <v>102.90416666033327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>274.17708333333297</v>
       </c>
@@ -16092,13 +14128,11 @@
         <v>270.979166666666</v>
       </c>
       <c r="K44">
+        <f t="shared" si="0"/>
         <v>273.32291666999993</v>
       </c>
-      <c r="L44">
-        <v>105.04166666999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>275.5</v>
       </c>
@@ -16130,13 +14164,11 @@
         <v>272.58333333333297</v>
       </c>
       <c r="K45">
+        <f t="shared" si="0"/>
         <v>275.22812500333328</v>
       </c>
-      <c r="L45">
-        <v>107.23750000666662</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>275.52083333333297</v>
       </c>
@@ -16168,13 +14200,11 @@
         <v>272.95833333333297</v>
       </c>
       <c r="K46">
+        <f t="shared" si="0"/>
         <v>276.43124999999992</v>
       </c>
-      <c r="L46">
-        <v>110.14166666666661</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>275.61458333333297</v>
       </c>
@@ -16206,13 +14236,11 @@
         <v>275.36458333333297</v>
       </c>
       <c r="K47">
+        <f t="shared" si="0"/>
         <v>277.19479167666657</v>
       </c>
-      <c r="L47">
-        <v>112.7708333366666</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>275.760416666666</v>
       </c>
@@ -16244,13 +14272,11 @@
         <v>275.96875</v>
       </c>
       <c r="K48">
+        <f t="shared" si="0"/>
         <v>277.40000000666657</v>
       </c>
-      <c r="L48">
-        <v>115.43333332666661</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>275.541666666666</v>
       </c>
@@ -16282,13 +14308,11 @@
         <v>276.28125</v>
       </c>
       <c r="K49">
+        <f t="shared" si="0"/>
         <v>277.1427083433332</v>
       </c>
-      <c r="L49">
-        <v>117.99583333666651</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>275.42708333333297</v>
       </c>
@@ -16320,13 +14344,11 @@
         <v>275.322916666666</v>
       </c>
       <c r="K50">
+        <f t="shared" si="0"/>
         <v>276.49166666333321</v>
       </c>
-      <c r="L50">
-        <v>120.39999999999991</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>273.67708333333297</v>
       </c>
@@ -16358,13 +14380,11 @@
         <v>274.45833333333297</v>
       </c>
       <c r="K51">
+        <f t="shared" si="0"/>
         <v>274.97395833999991</v>
       </c>
-      <c r="L51">
-        <v>122.92083333333331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>272.23958333333297</v>
       </c>
@@ -16396,13 +14416,11 @@
         <v>273.4375</v>
       </c>
       <c r="K52">
+        <f t="shared" si="0"/>
         <v>273.21562500666658</v>
       </c>
-      <c r="L52">
-        <v>125.05416665999989</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>271.135416666666</v>
       </c>
@@ -16434,13 +14452,11 @@
         <v>271.98958333333297</v>
       </c>
       <c r="K53">
+        <f t="shared" si="0"/>
         <v>271.43020833333321</v>
       </c>
-      <c r="L53">
-        <v>127.4458333333333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>268.58333333333297</v>
       </c>
@@ -16472,13 +14488,11 @@
         <v>270.875</v>
       </c>
       <c r="K54">
+        <f t="shared" si="0"/>
         <v>269.35729167333329</v>
       </c>
-      <c r="L54">
-        <v>129.55416666333332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>266.23958333333297</v>
       </c>
@@ -16510,13 +14524,11 @@
         <v>268.635416666666</v>
       </c>
       <c r="K55">
+        <f t="shared" si="0"/>
         <v>267.1927083366665</v>
       </c>
-      <c r="L55">
-        <v>132.21249999999992</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>264.260416666666</v>
       </c>
@@ -16548,13 +14560,11 @@
         <v>266.447916666666</v>
       </c>
       <c r="K56">
+        <f t="shared" si="0"/>
         <v>264.87604167333319</v>
       </c>
-      <c r="L56">
-        <v>135.04583332666661</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>261.86458333333297</v>
       </c>
@@ -16586,13 +14596,11 @@
         <v>263.947916666666</v>
       </c>
       <c r="K57">
+        <f t="shared" si="0"/>
         <v>262.44895832333322</v>
       </c>
-      <c r="L57">
-        <v>137.4041666633332</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>259.42708333333297</v>
       </c>
@@ -16624,13 +14632,11 @@
         <v>261.416666666666</v>
       </c>
       <c r="K58">
+        <f t="shared" si="0"/>
         <v>259.91979166333323</v>
       </c>
-      <c r="L58">
-        <v>139.4541666799999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>256.979166666666</v>
       </c>
@@ -16662,13 +14668,11 @@
         <v>259.072916666666</v>
       </c>
       <c r="K59">
+        <f t="shared" si="0"/>
         <v>257.51354166333323</v>
       </c>
-      <c r="L59">
-        <v>141.79583333999989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>254.479166666666</v>
       </c>
@@ -16700,13 +14704,11 @@
         <v>256.729166666666</v>
       </c>
       <c r="K60">
+        <f t="shared" si="0"/>
         <v>255.05520834333319</v>
       </c>
-      <c r="L60">
-        <v>144.46249999666659</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>252.239583333333</v>
       </c>
@@ -16738,13 +14740,11 @@
         <v>254.166666666666</v>
       </c>
       <c r="K61">
+        <f t="shared" si="0"/>
         <v>252.62708333333322</v>
       </c>
-      <c r="L61">
-        <v>146.99166665333331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>249.635416666666</v>
       </c>
@@ -16776,13 +14776,11 @@
         <v>251.770833333333</v>
       </c>
       <c r="K62">
+        <f t="shared" si="0"/>
         <v>250.0958333399999</v>
       </c>
-      <c r="L62">
-        <v>149.5000000033333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>247.239583333333</v>
       </c>
@@ -16814,13 +14812,11 @@
         <v>249.322916666666</v>
       </c>
       <c r="K63">
+        <f t="shared" si="0"/>
         <v>247.60104165999991</v>
       </c>
-      <c r="L63">
-        <v>151.9791666633333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>244.739583333333</v>
       </c>
@@ -16852,13 +14848,11 @@
         <v>246.927083333333</v>
       </c>
       <c r="K64">
+        <f t="shared" si="0"/>
         <v>245.10624998999992</v>
       </c>
-      <c r="L64">
-        <v>154.4083333333333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>242.239583333333</v>
       </c>
@@ -16890,13 +14884,11 @@
         <v>244.583333333333</v>
       </c>
       <c r="K65">
+        <f t="shared" si="0"/>
         <v>242.71875000999989</v>
       </c>
-      <c r="L65">
-        <v>157.42499999666651</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>240.052083333333</v>
       </c>
@@ -16928,13 +14920,11 @@
         <v>241.822916666666</v>
       </c>
       <c r="K66">
+        <f t="shared" si="0"/>
         <v>240.28125000666651</v>
       </c>
-      <c r="L66">
-        <v>160.57499999333322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>237.65625</v>
       </c>
@@ -16966,13 +14956,11 @@
         <v>239.375</v>
       </c>
       <c r="K67">
+        <f t="shared" si="0"/>
         <v>237.7604166666666</v>
       </c>
-      <c r="L67">
-        <v>163.2916666666666</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>234.947916666666</v>
       </c>
@@ -17004,13 +14992,11 @@
         <v>236.822916666666</v>
       </c>
       <c r="K68">
+        <f t="shared" ref="K68:K82" si="1">AVERAGE(A68:J68)</f>
         <v>235.2552083333332</v>
       </c>
-      <c r="L68">
-        <v>165.8624999966666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>232.760416666666</v>
       </c>
@@ -17042,13 +15028,11 @@
         <v>234.270833333333</v>
       </c>
       <c r="K69">
+        <f t="shared" si="1"/>
         <v>232.78645834333321</v>
       </c>
-      <c r="L69">
-        <v>168.60416667666661</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>230.3125</v>
       </c>
@@ -17080,13 +15064,11 @@
         <v>231.770833333333</v>
       </c>
       <c r="K70">
+        <f t="shared" si="1"/>
         <v>230.2760416699999</v>
       </c>
-      <c r="L70">
-        <v>171.17916666333332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>227.864583333333</v>
       </c>
@@ -17118,13 +15100,11 @@
         <v>229.270833333333</v>
       </c>
       <c r="K71">
+        <f t="shared" si="1"/>
         <v>227.7708333333332</v>
       </c>
-      <c r="L71">
-        <v>173.58333333666661</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>225.416666666666</v>
       </c>
@@ -17156,13 +15136,11 @@
         <v>227.083333333333</v>
       </c>
       <c r="K72">
+        <f t="shared" si="1"/>
         <v>225.24479166333316</v>
       </c>
-      <c r="L72">
-        <v>176.27083334333321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>222.8125</v>
       </c>
@@ -17194,13 +15172,11 @@
         <v>224.947916666666</v>
       </c>
       <c r="K73">
+        <f t="shared" si="1"/>
         <v>222.74999999333323</v>
       </c>
-      <c r="L73">
-        <v>178.68333333666661</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>220.260416666666</v>
       </c>
@@ -17232,13 +15208,11 @@
         <v>222.1875</v>
       </c>
       <c r="K74">
+        <f t="shared" si="1"/>
         <v>220.3333333299999</v>
       </c>
-      <c r="L74">
-        <v>181.45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>217.708333333333</v>
       </c>
@@ -17270,13 +15244,11 @@
         <v>219.635416666666</v>
       </c>
       <c r="K75">
+        <f t="shared" si="1"/>
         <v>217.78124999333323</v>
       </c>
-      <c r="L75">
-        <v>183.37500000666651</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>215.260416666666</v>
       </c>
@@ -17308,13 +15280,11 @@
         <v>216.927083333333</v>
       </c>
       <c r="K76">
+        <f t="shared" si="1"/>
         <v>215.3333333299999</v>
       </c>
-      <c r="L76">
-        <v>186.19999999666661</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>212.65625</v>
       </c>
@@ -17346,13 +15316,11 @@
         <v>214.427083333333</v>
       </c>
       <c r="K77">
+        <f t="shared" si="1"/>
         <v>212.8385416699999</v>
       </c>
-      <c r="L77">
-        <v>188.77916667</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>210.208333333333</v>
       </c>
@@ -17384,13 +15352,11 @@
         <v>211.614583333333</v>
       </c>
       <c r="K78">
+        <f t="shared" si="1"/>
         <v>210.31249999999991</v>
       </c>
-      <c r="L78">
-        <v>191.20000000999988</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>207.760416666666</v>
       </c>
@@ -17422,13 +15388,11 @@
         <v>209.21875</v>
       </c>
       <c r="K79">
+        <f t="shared" si="1"/>
         <v>207.78124998666664</v>
       </c>
-      <c r="L79">
-        <v>193.6583333333333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>205.416666666666</v>
       </c>
@@ -17460,13 +15424,11 @@
         <v>206.25</v>
       </c>
       <c r="K80">
+        <f t="shared" si="1"/>
         <v>205.30729165999992</v>
       </c>
-      <c r="L80">
-        <v>196.15416665999993</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>202.760416666666</v>
       </c>
@@ -17498,13 +15460,11 @@
         <v>203.125</v>
       </c>
       <c r="K81">
+        <f t="shared" si="1"/>
         <v>202.6510416733332</v>
       </c>
-      <c r="L81">
-        <v>198.04583333999989</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>200</v>
       </c>
@@ -17536,9 +15496,7 @@
         <v>200</v>
       </c>
       <c r="K82">
-        <v>200</v>
-      </c>
-      <c r="L82">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
@@ -17559,7 +15517,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
